--- a/quizzes/ls04_histograms/ls04_histograms_theory_quiz/quiz.xlsx
+++ b/quizzes/ls04_histograms/ls04_histograms_theory_quiz/quiz.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>&lt;p&gt;This quiz tests your understanding of [lesson 4]._x000D_
+          <t>&lt;p&gt;This quiz tests your understanding of [lesson 4].
 Good luck!&lt;/p&gt;&lt;p&gt;Quiz Contributors: &lt;a href="https://thegraphcourses.org/members/joy/" target="_blank"&gt;Joy Vaz&lt;/a&gt;, &lt;a href="https://thegraphcourses.org/members/kendavidn/" target="_blank"&gt;Kene David Nwosu&lt;/a&gt;&lt;/p&gt;</t>
         </is>
       </c>
@@ -506,30 +506,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;div id="a" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;geom_histogram()&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;geom_histogram()&lt;/code&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>&lt;div id="b" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;geom_hist()&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;geom_hist()&lt;/code&gt;</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>&lt;div id="c" class="section level2"&gt;_x000D_
-&lt;h2&gt;C&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;geom_bar()&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;geom_bar()&lt;/code&gt;</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>&lt;div id="d" class="section level2"&gt;_x000D_
-&lt;h2&gt;D&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;geom_col()&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;geom_col()&lt;/code&gt;</t>
         </is>
       </c>
       <c r="T2">
@@ -537,17 +529,13 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Correct!&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;code&gt;geom_histogram()&lt;/code&gt; is used to create histograms in {ggplot2}&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Correct!&lt;/p&gt;
+&lt;p&gt;&lt;code&gt;geom_histogram()&lt;/code&gt; is used to create histograms in {ggplot2}</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;geom_histogram()&lt;/code&gt; is used to create histograms in {ggplot2}&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;geom_histogram()&lt;/code&gt; is used to create histograms in {ggplot2}</t>
         </is>
       </c>
     </row>
@@ -572,16 +560,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>&lt;div id="a-1" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;TRUE&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>&lt;div id="b-1" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;FALSE&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="T3">
@@ -589,18 +573,14 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-1" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Correct!&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Correct!&lt;/p&gt;
+&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-1" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;Check again!&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Check again!&lt;/p&gt;
+&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;</t>
         </is>
       </c>
     </row>
@@ -625,16 +605,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>&lt;div id="a-2" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;TRUE&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>&lt;div id="b-2" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;FALSE&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="T4">
@@ -642,18 +618,14 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-2" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Correct!&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Correct!&lt;/p&gt;
+&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-2" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;Check again!&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Check again!&lt;/p&gt;
+&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;</t>
         </is>
       </c>
     </row>
@@ -678,16 +650,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>&lt;div id="a-3" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;TRUE&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>&lt;div id="b-3" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;FALSE&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="T5">
@@ -695,18 +663,14 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-3" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Correct!&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Correct!&lt;/p&gt;
+&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-3" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;Check again!&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Check again!&lt;/p&gt;
+&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;</t>
         </is>
       </c>
     </row>
@@ -731,16 +695,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>&lt;div id="a-4" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;TRUE&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>&lt;div id="b-4" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;FALSE&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="T6">
@@ -748,18 +708,14 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-4" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Great!&lt;/p&gt;_x000D_
-&lt;p&gt;We set &lt;code&gt;bins&lt;/code&gt; equal to an integer which tells &lt;code&gt;geom_histogram()&lt;/code&gt; how many bars to draw.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Great!&lt;/p&gt;
+&lt;p&gt;We set &lt;code&gt;bins&lt;/code&gt; equal to an integer which tells &lt;code&gt;geom_histogram()&lt;/code&gt; how many bars to draw.</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-4" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;It’s true._x000D_
-We set &lt;code&gt;bins&lt;/code&gt; equal to an integer which tells &lt;code&gt;geom_histogram()&lt;/code&gt; how many bars to draw.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>It’s true.
+We set &lt;code&gt;bins&lt;/code&gt; equal to an integer which tells &lt;code&gt;geom_histogram()&lt;/code&gt; how many bars to draw.</t>
         </is>
       </c>
     </row>
@@ -784,30 +740,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>&lt;div id="a-5" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;The width of the bins&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>The width of the bins</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>&lt;div id="b-5" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;The range of x-axis values&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>The range of x-axis values</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>&lt;div id="c-1" class="section level2"&gt;_x000D_
-&lt;h2&gt;C&lt;/h2&gt;_x000D_
-&lt;p&gt;The number of bins&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>The number of bins</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>&lt;div id="d-1" class="section level2"&gt;_x000D_
-&lt;h2&gt;D&lt;/h2&gt;_x000D_
-&lt;p&gt;The height of bars&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>The height of bars</t>
         </is>
       </c>
       <c r="T7">
@@ -815,23 +763,19 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-5" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Correct!_x000D_
-As the name suggests, &lt;code&gt;binwidth&lt;/code&gt; controls how wide each bin is.&lt;/p&gt;_x000D_
-&lt;p&gt;The number of bins can be specified with the &lt;code&gt;bins&lt;/code&gt; argument._x000D_
-The height of bars is determined by the number of observations that fall into the corresponding bin._x000D_
-The x-axis range is determined by the range of values in the data variable being plotted.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Correct!
+As the name suggests, &lt;code&gt;binwidth&lt;/code&gt; controls how wide each bin is.&lt;/p&gt;
+&lt;p&gt;The number of bins can be specified with the &lt;code&gt;bins&lt;/code&gt; argument.
+The height of bars is determined by the number of observations that fall into the corresponding bin.
+The x-axis range is determined by the range of values in the data variable being plotted.</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-5" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;As the name suggests, &lt;code&gt;binwidth&lt;/code&gt; controls how wide each bin is.&lt;/p&gt;_x000D_
-&lt;p&gt;The number of bins can be specified with the &lt;code&gt;bins&lt;/code&gt; argument._x000D_
-The height of bars is determined by the number of observations that fall into the corresponding bin._x000D_
-The x-axis range is determined by the range of values in the data variable being plotted.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>As the name suggests, &lt;code&gt;binwidth&lt;/code&gt; controls how wide each bin is.&lt;/p&gt;
+&lt;p&gt;The number of bins can be specified with the &lt;code&gt;bins&lt;/code&gt; argument.
+The height of bars is determined by the number of observations that fall into the corresponding bin.
+The x-axis range is determined by the range of values in the data variable being plotted.</t>
         </is>
       </c>
     </row>
@@ -856,30 +800,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>&lt;div id="a-6" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;The width of the bins&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>The width of the bins</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>&lt;div id="b-6" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;The range of x-axis values&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>The range of x-axis values</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>&lt;div id="c-2" class="section level2"&gt;_x000D_
-&lt;h2&gt;C&lt;/h2&gt;_x000D_
-&lt;p&gt;The number of bins&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>The number of bins</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>&lt;div id="d-2" class="section level2"&gt;_x000D_
-&lt;h2&gt;D&lt;/h2&gt;_x000D_
-&lt;p&gt;The height of bars&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>The height of bars</t>
         </is>
       </c>
       <c r="T8">
@@ -887,25 +823,21 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-6" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Correct!_x000D_
-&lt;code&gt;bins&lt;/code&gt; controls the number of bins to divide our data into._x000D_
-For example, setting &lt;code&gt;bins = 20&lt;/code&gt; will divide the data into 20 bins, and plot a bar for each bin.&lt;/p&gt;_x000D_
-&lt;p&gt;The width of bins can be specified with the &lt;code&gt;binwidth&lt;/code&gt; argument._x000D_
-The height of bars is determined by the number of observations that fall into the corresponding bin._x000D_
-The x-axis range is determined by the range of values in the data variable being plotted.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Correct!
+&lt;code&gt;bins&lt;/code&gt; controls the number of bins to divide our data into.
+For example, setting &lt;code&gt;bins = 20&lt;/code&gt; will divide the data into 20 bins, and plot a bar for each bin.&lt;/p&gt;
+&lt;p&gt;The width of bins can be specified with the &lt;code&gt;binwidth&lt;/code&gt; argument.
+The height of bars is determined by the number of observations that fall into the corresponding bin.
+The x-axis range is determined by the range of values in the data variable being plotted.</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-6" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;bins&lt;/code&gt; controls the number of bins to divide our data into._x000D_
-For example, setting &lt;code&gt;bins = 20&lt;/code&gt; will divide the data into 20 bins, and plot a bar for each bin.&lt;/p&gt;_x000D_
-&lt;p&gt;The width of bins can be specified with the &lt;code&gt;binwidth&lt;/code&gt; argument._x000D_
-The height of bars is determined by the number of observations that fall into the corresponding bin._x000D_
-The x-axis range is determined by the range of values in the data variable being plotted.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;bins&lt;/code&gt; controls the number of bins to divide our data into.
+For example, setting &lt;code&gt;bins = 20&lt;/code&gt; will divide the data into 20 bins, and plot a bar for each bin.&lt;/p&gt;
+&lt;p&gt;The width of bins can be specified with the &lt;code&gt;binwidth&lt;/code&gt; argument.
+The height of bars is determined by the number of observations that fall into the corresponding bin.
+The x-axis range is determined by the range of values in the data variable being plotted.</t>
         </is>
       </c>
     </row>
@@ -930,23 +862,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>&lt;div id="a-7" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;Increasing &lt;code&gt;binwidth&lt;/code&gt; of a histogram will reduce the total number of bins.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Increasing &lt;code&gt;binwidth&lt;/code&gt; of a histogram will reduce the total number of bins.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>&lt;div id="b-7" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;Increasing &lt;code&gt;binwidth&lt;/code&gt; of a histogram will increase the total number of bins.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Increasing &lt;code&gt;binwidth&lt;/code&gt; of a histogram will increase the total number of bins.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>&lt;div id="c-3" class="section level2"&gt;_x000D_
-&lt;h2&gt;C&lt;/h2&gt;_x000D_
-&lt;p&gt;Increasing &lt;code&gt;binwidth&lt;/code&gt; of a histogram has no effect on the number of bins plotted.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Increasing &lt;code&gt;binwidth&lt;/code&gt; of a histogram has no effect on the number of bins plotted.</t>
         </is>
       </c>
       <c r="T9">
@@ -954,79 +880,73 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-7" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Correct!_x000D_
-Larger bin width means that there will be fewer bins overall, and vice versa._x000D_
-Try running the code in R to see how &lt;code&gt;binwidth&lt;/code&gt; indirectly influences the number of bins.&lt;/p&gt;_x000D_
-&lt;pre class="r"&gt;&lt;code&gt;# No binwidth give: defaults to 30 bins_x000D_
-ggplot(data = iris,_x000D_
-       mapping = aes(x = Sepal.Length)) +_x000D_
-  geom_histogram(fill = "seagreen",_x000D_
-                 color = "white")&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;pre&gt;&lt;code&gt;## `stat_bin()` using `bins = 30`. Pick_x000D_
-## better value with `binwidth`.&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-9-1.png" width="672"&gt;&lt;/p&gt;_x000D_
-&lt;pre class="r"&gt;&lt;code&gt;# Small binwidth of 0.1 results in more bins_x000D_
-ggplot(data = iris,_x000D_
-       mapping = aes(x = Sepal.Length)) +_x000D_
-  geom_histogram(fill = "seagreen",_x000D_
-                 color = "white",_x000D_
-                 binwidth = 0.1)&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-9-2.png" width="672"&gt;&lt;/p&gt;_x000D_
-&lt;pre class="r"&gt;&lt;code&gt;# Larger binwidth of 0.5 results in fewer bins_x000D_
-ggplot(data = iris,_x000D_
-       mapping = aes(x = Sepal.Length)) +_x000D_
-  geom_histogram(fill = "seagreen",_x000D_
-                 color = "white",_x000D_
-                 binwidth = 0.5)&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-9-3.png" width="672"&gt;&lt;/p&gt;_x000D_
-&lt;p&gt;If you specify both &lt;code&gt;bins&lt;/code&gt; and &lt;code&gt;binwidth&lt;/code&gt;, &lt;code&gt;bins&lt;/code&gt; will be overridden by &lt;code&gt;binwidth&lt;/code&gt;.&lt;/p&gt;_x000D_
-&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = iris,_x000D_
-       mapping = aes(x = Sepal.Length)) +_x000D_
-  geom_histogram(fill = "seagreen",_x000D_
-                 color = "white",_x000D_
-                 binwidth = 0.25,_x000D_
-                 bins = 3) # this argument is ignored in favor of binwidth&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-10-1.png" width="672"&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Correct!
+Larger bin width means that there will be fewer bins overall, and vice versa.
+Try running the code in R to see how &lt;code&gt;binwidth&lt;/code&gt; indirectly influences the number of bins.&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;# No binwidth give: defaults to 30 bins
+ggplot(data = iris,
+       mapping = aes(x = Sepal.Length)) +
+  geom_histogram(fill = "seagreen",
+                 color = "white")&lt;/code&gt;&lt;/pre&gt;
+&lt;pre&gt;&lt;code&gt;## `stat_bin()` using `bins = 30`. Pick better value with `binwidth`.&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-9-1.png" width="672"&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;# Small binwidth of 0.1 results in more bins
+ggplot(data = iris,
+       mapping = aes(x = Sepal.Length)) +
+  geom_histogram(fill = "seagreen",
+                 color = "white",
+                 binwidth = 0.1)&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-9-2.png" width="672"&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;# Larger binwidth of 0.5 results in fewer bins
+ggplot(data = iris,
+       mapping = aes(x = Sepal.Length)) +
+  geom_histogram(fill = "seagreen",
+                 color = "white",
+                 binwidth = 0.5)&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-9-3.png" width="672"&gt;&lt;/p&gt;
+&lt;p&gt;If you specify both &lt;code&gt;bins&lt;/code&gt; and &lt;code&gt;binwidth&lt;/code&gt;, &lt;code&gt;bins&lt;/code&gt; will be overridden by &lt;code&gt;binwidth&lt;/code&gt;.&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = iris,
+       mapping = aes(x = Sepal.Length)) +
+  geom_histogram(fill = "seagreen",
+                 color = "white",
+                 binwidth = 0.25,
+                 bins = 3) # this argument is ignored in favor of binwidth&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-10-1.png" width="672"&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-7" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;Larger bin width means that there will be fewer bins overall, and vice versa._x000D_
-Try running the code in R to see how &lt;code&gt;binwidth&lt;/code&gt; indirectly influences the number of bins.&lt;/p&gt;_x000D_
-&lt;pre class="r"&gt;&lt;code&gt;# No binwidth give: defaults to 30 bins_x000D_
-ggplot(data = iris,_x000D_
-       mapping = aes(x = Sepal.Length)) +_x000D_
-  geom_histogram(fill = "seagreen",_x000D_
-                 color = "white")&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;pre&gt;&lt;code&gt;## `stat_bin()` using `bins = 30`. Pick_x000D_
-## better value with `binwidth`.&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-11-1.png" width="672"&gt;&lt;/p&gt;_x000D_
-&lt;pre class="r"&gt;&lt;code&gt;# Small binwidth of 0.1 results in more bins_x000D_
-ggplot(data = iris,_x000D_
-       mapping = aes(x = Sepal.Length)) +_x000D_
-  geom_histogram(fill = "seagreen",_x000D_
-                 color = "white",_x000D_
-                 binwidth = 0.1)&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-11-2.png" width="672"&gt;&lt;/p&gt;_x000D_
-&lt;pre class="r"&gt;&lt;code&gt;# Larger binwidth of 0.5 results in fewer bins_x000D_
-ggplot(data = iris,_x000D_
-       mapping = aes(x = Sepal.Length)) +_x000D_
-  geom_histogram(fill = "seagreen",_x000D_
-                 color = "white",_x000D_
-                 binwidth = 0.5)&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-11-3.png" width="672"&gt;&lt;/p&gt;_x000D_
-&lt;p&gt;If you specify both &lt;code&gt;bins&lt;/code&gt; and &lt;code&gt;binwidth&lt;/code&gt;, &lt;code&gt;bins&lt;/code&gt; will be overridden by &lt;code&gt;binwidth&lt;/code&gt;.&lt;/p&gt;_x000D_
-&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = iris,_x000D_
-       mapping = aes(x = Sepal.Length)) +_x000D_
-  geom_histogram(fill = "seagreen",_x000D_
-                 color = "white",_x000D_
-                 binwidth = 0.25,_x000D_
-                 bins = 3) # this argument is ignored in favor of binwidth&lt;/code&gt;&lt;/pre&gt;_x000D_
-&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-12-1.png" width="672"&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Larger bin width means that there will be fewer bins overall, and vice versa.
+Try running the code in R to see how &lt;code&gt;binwidth&lt;/code&gt; indirectly influences the number of bins.&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;# No binwidth give: defaults to 30 bins
+ggplot(data = iris,
+       mapping = aes(x = Sepal.Length)) +
+  geom_histogram(fill = "seagreen",
+                 color = "white")&lt;/code&gt;&lt;/pre&gt;
+&lt;pre&gt;&lt;code&gt;## `stat_bin()` using `bins = 30`. Pick better value with `binwidth`.&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-11-1.png" width="672"&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;# Small binwidth of 0.1 results in more bins
+ggplot(data = iris,
+       mapping = aes(x = Sepal.Length)) +
+  geom_histogram(fill = "seagreen",
+                 color = "white",
+                 binwidth = 0.1)&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-11-2.png" width="672"&gt;&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;# Larger binwidth of 0.5 results in fewer bins
+ggplot(data = iris,
+       mapping = aes(x = Sepal.Length)) +
+  geom_histogram(fill = "seagreen",
+                 color = "white",
+                 binwidth = 0.5)&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-11-3.png" width="672"&gt;&lt;/p&gt;
+&lt;p&gt;If you specify both &lt;code&gt;bins&lt;/code&gt; and &lt;code&gt;binwidth&lt;/code&gt;, &lt;code&gt;bins&lt;/code&gt; will be overridden by &lt;code&gt;binwidth&lt;/code&gt;.&lt;/p&gt;
+&lt;pre class="r"&gt;&lt;code&gt;ggplot(data = iris,
+       mapping = aes(x = Sepal.Length)) +
+  geom_histogram(fill = "seagreen",
+                 color = "white",
+                 binwidth = 0.25,
+                 bins = 3) # this argument is ignored in favor of binwidth&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-12-1.png" width="672"&gt;</t>
         </is>
       </c>
     </row>
@@ -1051,16 +971,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>&lt;div id="a-8" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;FALSE&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>&lt;div id="b-8" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;TRUE&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="T10">
@@ -1068,16 +984,12 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-8" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Good work!&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Good work!</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-8" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;Keep going.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Keep going.</t>
         </is>
       </c>
     </row>
@@ -1102,16 +1014,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>&lt;div id="a-9" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;FALSE&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>&lt;div id="b-9" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;TRUE&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="T11">
@@ -1119,16 +1027,12 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-9" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Good work!&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Good work!</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-9" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;Keep going.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Keep going.</t>
         </is>
       </c>
     </row>
@@ -1153,30 +1057,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>&lt;div id="a-10" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;One continuous variable&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>One continuous variable</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>&lt;div id="b-10" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;Two continuous variables&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Two continuous variables</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>&lt;div id="c-4" class="section level2"&gt;_x000D_
-&lt;h2&gt;C&lt;/h2&gt;_x000D_
-&lt;p&gt;One discrete variable and one continuous variable&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>One discrete variable and one continuous variable</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>&lt;div id="d-3" class="section level2"&gt;_x000D_
-&lt;h2&gt;D&lt;/h2&gt;_x000D_
-&lt;p&gt;Two discrete variables&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Two discrete variables</t>
         </is>
       </c>
       <c r="T12">
@@ -1184,19 +1080,15 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-10" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Correct!_x000D_
-A histogram is a univariate plot that can be used to visualize the distribution of one continuous variable.&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Correct!
+A histogram is a univariate plot that can be used to visualize the distribution of one continuous variable.&lt;/p&gt;
+&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-10" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;A histogram is a univariate plot that can be used to visualize the distribution of one continuous variable.&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>A histogram is a univariate plot that can be used to visualize the distribution of one continuous variable.&lt;/p&gt;
+&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;</t>
         </is>
       </c>
     </row>
@@ -1221,30 +1113,22 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>&lt;div id="a-11" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;bins&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;bins&lt;/code&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>&lt;div id="b-11" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;binwidth&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;binwidth&lt;/code&gt;</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>&lt;div id="c-5" class="section level2"&gt;_x000D_
-&lt;h2&gt;C&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;boundary&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;boundary&lt;/code&gt;</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>&lt;div id="d-4" class="section level2"&gt;_x000D_
-&lt;h2&gt;D&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;breaks&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;breaks&lt;/code&gt;</t>
         </is>
       </c>
       <c r="T13">
@@ -1252,17 +1136,13 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-11" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Correct!_x000D_
-You can use the &lt;code&gt;boundary&lt;/code&gt; argument in &lt;code&gt;geom_histogram()&lt;/code&gt; to shift and align bins on a histogram.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Correct!
+You can use the &lt;code&gt;boundary&lt;/code&gt; argument in &lt;code&gt;geom_histogram()&lt;/code&gt; to shift and align bins on a histogram.</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-11" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;You can use the &lt;code&gt;boundary&lt;/code&gt; argument in &lt;code&gt;geom_histogram()&lt;/code&gt; to shift and align bins on a histogram.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>You can use the &lt;code&gt;boundary&lt;/code&gt; argument in &lt;code&gt;geom_histogram()&lt;/code&gt; to shift and align bins on a histogram.</t>
         </is>
       </c>
     </row>
@@ -1287,30 +1167,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>&lt;div id="a-12" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;R throws an error&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>R throws an error</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>&lt;div id="b-12" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;binwidth&lt;/code&gt; takes precedence over &lt;code&gt;bins&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;binwidth&lt;/code&gt; takes precedence over &lt;code&gt;bins&lt;/code&gt;</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>&lt;div id="c-6" class="section level2"&gt;_x000D_
-&lt;h2&gt;C&lt;/h2&gt;_x000D_
-&lt;p&gt;&lt;code&gt;bins&lt;/code&gt; takes precedence over &lt;code&gt;binwidth&lt;/code&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>&lt;code&gt;bins&lt;/code&gt; takes precedence over &lt;code&gt;binwidth&lt;/code&gt;</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>&lt;div id="d-5" class="section level2"&gt;_x000D_
-&lt;h2&gt;D&lt;/h2&gt;_x000D_
-&lt;p&gt;Both arguments are ignored&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Both arguments are ignored</t>
         </is>
       </c>
       <c r="T14">
@@ -1318,17 +1190,13 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-12" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Right on!_x000D_
-If you set the &lt;code&gt;binwidth&lt;/code&gt; and &lt;code&gt;bins&lt;/code&gt; arguments at the same time in &lt;code&gt;geom_histogram()&lt;/code&gt;, &lt;code&gt;binwidth&lt;/code&gt; takes precedence over &lt;code&gt;bins&lt;/code&gt;.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Right on!
+If you set the &lt;code&gt;binwidth&lt;/code&gt; and &lt;code&gt;bins&lt;/code&gt; arguments at the same time in &lt;code&gt;geom_histogram()&lt;/code&gt;, &lt;code&gt;binwidth&lt;/code&gt; takes precedence over &lt;code&gt;bins&lt;/code&gt;.</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-12" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;If you set the &lt;code&gt;binwidth&lt;/code&gt; and &lt;code&gt;bins&lt;/code&gt; arguments at the same time in &lt;code&gt;geom_histogram()&lt;/code&gt;, &lt;code&gt;binwidth&lt;/code&gt; takes precedence over &lt;code&gt;bins&lt;/code&gt;.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>If you set the &lt;code&gt;binwidth&lt;/code&gt; and &lt;code&gt;bins&lt;/code&gt; arguments at the same time in &lt;code&gt;geom_histogram()&lt;/code&gt;, &lt;code&gt;binwidth&lt;/code&gt; takes precedence over &lt;code&gt;bins&lt;/code&gt;.</t>
         </is>
       </c>
     </row>
@@ -1353,30 +1221,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>&lt;div id="a-13" class="section level2"&gt;_x000D_
-&lt;h2&gt;A&lt;/h2&gt;_x000D_
-&lt;p&gt;5&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>&lt;div id="b-13" class="section level2"&gt;_x000D_
-&lt;h2&gt;B&lt;/h2&gt;_x000D_
-&lt;p&gt;30&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>&lt;div id="c-7" class="section level2"&gt;_x000D_
-&lt;h2&gt;C&lt;/h2&gt;_x000D_
-&lt;p&gt;15&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>&lt;div id="d-6" class="section level2"&gt;_x000D_
-&lt;h2&gt;D&lt;/h2&gt;_x000D_
-&lt;p&gt;20&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>20</t>
         </is>
       </c>
       <c r="T15">
@@ -1384,19 +1244,15 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;div id="correct-message-13" class="section level2"&gt;_x000D_
-&lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Correct!_x000D_
-The default value for the &lt;code&gt;bins&lt;/code&gt; argument in &lt;code&gt;geom_histogram()&lt;/code&gt; is 30.&lt;/p&gt;_x000D_
-&lt;p&gt;If you you don’t modify the bins, you get a warning message that says “&lt;code&gt;stat_bin()&lt;/code&gt; using &lt;code&gt;bins = 30&lt;/code&gt;. Pick better value with &lt;code&gt;binwidth&lt;/code&gt;.”&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>Correct!
+The default value for the &lt;code&gt;bins&lt;/code&gt; argument in &lt;code&gt;geom_histogram()&lt;/code&gt; is 30.&lt;/p&gt;
+&lt;p&gt;If you you don’t modify the bins, you get a warning message that says “&lt;code&gt;stat_bin()&lt;/code&gt; using &lt;code&gt;bins = 30&lt;/code&gt;. Pick better value with &lt;code&gt;binwidth&lt;/code&gt;.”</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>&lt;div id="incorrect-message-13" class="section level2"&gt;_x000D_
-&lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;The default value for the &lt;code&gt;bins&lt;/code&gt; argument in &lt;code&gt;geom_histogram()&lt;/code&gt; is 30.&lt;/p&gt;_x000D_
-&lt;p&gt;If you you don’t modify the bins, you get a warning message that says “&lt;code&gt;stat_bin()&lt;/code&gt; using &lt;code&gt;bins = 30&lt;/code&gt;. Pick better value with &lt;code&gt;binwidth.&lt;/code&gt;”&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+          <t>The default value for the &lt;code&gt;bins&lt;/code&gt; argument in &lt;code&gt;geom_histogram()&lt;/code&gt; is 30.&lt;/p&gt;
+&lt;p&gt;If you you don’t modify the bins, you get a warning message that says “&lt;code&gt;stat_bin()&lt;/code&gt; using &lt;code&gt;bins = 30&lt;/code&gt;. Pick better value with &lt;code&gt;binwidth.&lt;/code&gt;”</t>
         </is>
       </c>
     </row>

--- a/quizzes/ls04_histograms/ls04_histograms_theory_quiz/quiz.xlsx
+++ b/quizzes/ls04_histograms/ls04_histograms_theory_quiz/quiz.xlsx
@@ -574,13 +574,13 @@
       <c r="U3" t="inlineStr">
         <is>
           <t>Correct!&lt;/p&gt;
-&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;</t>
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;amp;id=12HzEfeTb7Sqny62KxG4b4mmqG7N0U6sz" width="766"&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
           <t>Check again!&lt;/p&gt;
-&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;</t>
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;amp;id=1FJivEXmZc6yP9b7CzcfCyiWFA-wyoYW8" width="766"&gt;</t>
         </is>
       </c>
     </row>
@@ -619,13 +619,13 @@
       <c r="U4" t="inlineStr">
         <is>
           <t>Correct!&lt;/p&gt;
-&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;</t>
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;amp;id=1_6Waj6Tu-N0sv5OuuIiPkGxFO54S-vD4" width="766"&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
           <t>Check again!&lt;/p&gt;
-&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;</t>
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;amp;id=1wZ6rYkMbsr9qVJq7setg9WZvPani5M24" width="766"&gt;</t>
         </is>
       </c>
     </row>
@@ -664,13 +664,13 @@
       <c r="U5" t="inlineStr">
         <is>
           <t>Correct!&lt;/p&gt;
-&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;</t>
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;amp;id=1pdlFb7BYwhlATWJ-TW6OS0dltrj_LvtN" width="766"&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
           <t>Check again!&lt;/p&gt;
-&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;</t>
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;amp;id=1TWCpyQ7iDCxR5YhzF9XuqmZ5Alr1GQh6" width="766"&gt;</t>
         </is>
       </c>
     </row>
@@ -888,22 +888,21 @@
        mapping = aes(x = Sepal.Length)) +
   geom_histogram(fill = "seagreen",
                  color = "white")&lt;/code&gt;&lt;/pre&gt;
-&lt;pre&gt;&lt;code&gt;## `stat_bin()` using `bins = 30`. Pick better value with `binwidth`.&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-9-1.png" width="672"&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;amp;id=11kVr3lIADaWZ8Pf_Nvy6XqmSXppoZcJ2" width="672"&gt;&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;# Small binwidth of 0.1 results in more bins
 ggplot(data = iris,
        mapping = aes(x = Sepal.Length)) +
   geom_histogram(fill = "seagreen",
                  color = "white",
                  binwidth = 0.1)&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-9-2.png" width="672"&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;amp;id=1nXqlznnBgVcZt9_o9zg8x22QhXqYkist" width="672"&gt;&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;# Larger binwidth of 0.5 results in fewer bins
 ggplot(data = iris,
        mapping = aes(x = Sepal.Length)) +
   geom_histogram(fill = "seagreen",
                  color = "white",
                  binwidth = 0.5)&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-9-3.png" width="672"&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;amp;id=1ZVNlSYyR4LZH4btfL-t28Qk5Ef1m91S8" width="672"&gt;&lt;/p&gt;
 &lt;p&gt;If you specify both &lt;code&gt;bins&lt;/code&gt; and &lt;code&gt;binwidth&lt;/code&gt;, &lt;code&gt;bins&lt;/code&gt; will be overridden by &lt;code&gt;binwidth&lt;/code&gt;.&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;ggplot(data = iris,
        mapping = aes(x = Sepal.Length)) +
@@ -911,7 +910,7 @@
                  color = "white",
                  binwidth = 0.25,
                  bins = 3) # this argument is ignored in favor of binwidth&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-10-1.png" width="672"&gt;</t>
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;amp;id=1EUBTSSMoX-9QEhKTbljZtwT4aZGH9MGL" width="672"&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -923,22 +922,21 @@
        mapping = aes(x = Sepal.Length)) +
   geom_histogram(fill = "seagreen",
                  color = "white")&lt;/code&gt;&lt;/pre&gt;
-&lt;pre&gt;&lt;code&gt;## `stat_bin()` using `bins = 30`. Pick better value with `binwidth`.&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-11-1.png" width="672"&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;amp;id=1QeT_bJnTEIIp2F61Wr3-wBFTQowzKi9j" width="672"&gt;&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;# Small binwidth of 0.1 results in more bins
 ggplot(data = iris,
        mapping = aes(x = Sepal.Length)) +
   geom_histogram(fill = "seagreen",
                  color = "white",
                  binwidth = 0.1)&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-11-2.png" width="672"&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;amp;id=1Z-7pIrxZqJvhjINvvkkB3sEG1RMEBzuZ" width="672"&gt;&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;# Larger binwidth of 0.5 results in fewer bins
 ggplot(data = iris,
        mapping = aes(x = Sepal.Length)) +
   geom_histogram(fill = "seagreen",
                  color = "white",
                  binwidth = 0.5)&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-11-3.png" width="672"&gt;&lt;/p&gt;
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;amp;id=1Rj8YYJhQj-3q92gTZ9kTIUC9JXHUSUVO" width="672"&gt;&lt;/p&gt;
 &lt;p&gt;If you specify both &lt;code&gt;bins&lt;/code&gt; and &lt;code&gt;binwidth&lt;/code&gt;, &lt;code&gt;bins&lt;/code&gt; will be overridden by &lt;code&gt;binwidth&lt;/code&gt;.&lt;/p&gt;
 &lt;pre class="r"&gt;&lt;code&gt;ggplot(data = iris,
        mapping = aes(x = Sepal.Length)) +
@@ -946,7 +944,7 @@
                  color = "white",
                  binwidth = 0.25,
                  bins = 3) # this argument is ignored in favor of binwidth&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="quiz_files/figure-html/unnamed-chunk-12-1.png" width="672"&gt;</t>
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;amp;id=1E87BFA3UgRo_ACs2LHe9dzhVvXQScKsY" width="672"&gt;</t>
         </is>
       </c>
     </row>
@@ -1082,13 +1080,13 @@
         <is>
           <t>Correct!
 A histogram is a univariate plot that can be used to visualize the distribution of one continuous variable.&lt;/p&gt;
-&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;</t>
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;amp;id=154Wc9qz3JIeClTw5Y7uekcXiOVZKNUHV" width="766"&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
           <t>A histogram is a univariate plot that can be used to visualize the distribution of one continuous variable.&lt;/p&gt;
-&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;</t>
+&lt;p&gt;&lt;img src="https://drive.google.com/uc?export=view&amp;amp;id=1vre2-sZeukuogiO7xsbc-WUegImWPWuo" width="766"&gt;</t>
         </is>
       </c>
     </row>
